--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60632_bde\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,16 @@
     <sheet name="3.3" sheetId="3" r:id="rId3"/>
     <sheet name="3.4" sheetId="4" r:id="rId4"/>
     <sheet name="3.5" sheetId="5" r:id="rId5"/>
+    <sheet name="3.6" sheetId="6" r:id="rId6"/>
+    <sheet name="3.7" sheetId="7" r:id="rId7"/>
+    <sheet name="3.8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
   <si>
     <t>группа 1</t>
   </si>
@@ -96,12 +104,75 @@
   </si>
   <si>
     <t>Ст. ошиб.</t>
+  </si>
+  <si>
+    <t>контр</t>
+  </si>
+  <si>
+    <t>тетрагидроканнабинол</t>
+  </si>
+  <si>
+    <t>1 хир</t>
+  </si>
+  <si>
+    <t>1 тер</t>
+  </si>
+  <si>
+    <t>2 хир</t>
+  </si>
+  <si>
+    <t>2 тер</t>
+  </si>
+  <si>
+    <t>3 хир</t>
+  </si>
+  <si>
+    <t>3 тер</t>
+  </si>
+  <si>
+    <t>Кол-во элем</t>
+  </si>
+  <si>
+    <t>Контроль</t>
+  </si>
+  <si>
+    <t>Дофимин (низ)</t>
+  </si>
+  <si>
+    <t>Дофмин(выс)</t>
+  </si>
+  <si>
+    <t>Нитропруссид</t>
+  </si>
+  <si>
+    <t>vвну</t>
+  </si>
+  <si>
+    <t>vмеж</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Взрослые</t>
+  </si>
+  <si>
+    <t>4 сут</t>
+  </si>
+  <si>
+    <t>1 мес</t>
+  </si>
+  <si>
+    <t>2 мес</t>
+  </si>
+  <si>
+    <t>4 мес</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,13 +238,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -188,6 +259,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +611,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,41 +662,41 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>0.5*(POWER(B2,2)+POWER(C2,2))</f>
         <v>19.450000000000003</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>B4*POWER(B8,2)</f>
         <v>306.18000000000006</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>0.5*(B3+C3)</f>
         <v>11.2</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <f>SQRT((POWER(B3-B7,2)+POWER(C3-B7,2))/(2-1))</f>
         <v>3.8183766184073571</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -638,19 +712,19 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>40</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -663,15 +737,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -683,7 +757,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,102 +842,102 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <f>(1/5)*(POWER(B3,2)+POWER(C3,2)+POWER(D3,2)+POWER(E3,2)+POWER(F3,2))</f>
         <v>0.51860000000000006</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <f>200*POWER(B8,2)</f>
         <v>33.285999999999987</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <f>(1/5)*(B2+C2+D2+E2+F2)</f>
         <v>2.5860000000000003</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <f>SQRT((POWER(B2-B7,2)+POWER(C2-B7,2)+POWER(D2-B7,2)+POWER(E2-B7,2)+POWER(F2-B7,2))/(5-1))</f>
         <v>0.40795833120552882</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <f>B6/B5</f>
         <v>64.184342460470461</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>995</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>2.37</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -886,7 +960,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:A12"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,96 +1012,96 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>70</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <f>(1/3)*(POWER(B3,2)+POWER(C3,2)+POWER(D3,2))</f>
         <v>239.80666666666664</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <f>70*POWER(B8,2)</f>
         <v>8453.4333333333343</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <f>(1/3)*(B2+C2+D2)</f>
         <v>55.36666666666666</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <f>SQRT((POWER(B2-B7,2)+POWER(C2-B7,2)+POWER(D2-B7,2))/(3-1))</f>
         <v>10.989237158844709</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <f>B6/B5</f>
         <v>35.251035556420454</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>207</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1049,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,130 +1211,130 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>36</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <f>(1/7)*(POWER(B13,2)+POWER(C13,2)+POWER(D13,2)+POWER(E13,2)+POWER(F13,2)+POWER(G13,2)+POWER(H13,2))</f>
         <v>55.954285714285717</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <f>36*POWER(B8,2)</f>
         <v>3378.2400000000007</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <f>(1/7)*(B2+C2+D2+E2+F2+G2+H2)</f>
         <v>74.199999999999989</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <f>SQRT((POWER(B2-B7,2)+POWER(C2-B7,2)+POWER(D2-B7,2)+POWER(E2-B7,2)+POWER(F2-B7,2)+POWER(G2-B7,2)+POWER(H2-B7,2))/(6))</f>
         <v>9.6871048306498686</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <f>B6/B5</f>
         <v>60.375000000000007</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>245</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1313,12 +1387,818 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>51.4</v>
+      </c>
+      <c r="C2">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>3.2</v>
+      </c>
+      <c r="C3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <f>(1/2)*(POWER(B13,2)+POWER(C13,2))</f>
+        <v>458.1</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <f>36*POWER(B8,2)</f>
+        <v>1152.0000000000002</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <f>(1/2)*(B2+C2)</f>
+        <v>55.4</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <f>SQRT((POWER(B2-B7,2)+POWER(C2-B7,2))/(1))</f>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B6/B5</f>
+        <v>2.514734774066798</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>70</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f>_xlfn.F.INV.RT(0.05,B10,B11)</f>
+        <v>3.9777793928101941</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>B3*6</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="C13">
+        <f>C3*6</f>
+        <v>23.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>49.9</v>
+      </c>
+      <c r="C2">
+        <v>51.2</v>
+      </c>
+      <c r="D2">
+        <v>573</v>
+      </c>
+      <c r="E2">
+        <v>46.4</v>
+      </c>
+      <c r="F2">
+        <v>43.9</v>
+      </c>
+      <c r="G2">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>14.3</v>
+      </c>
+      <c r="C3">
+        <v>13.4</v>
+      </c>
+      <c r="D3">
+        <v>14.9</v>
+      </c>
+      <c r="E3">
+        <v>14.7</v>
+      </c>
+      <c r="F3">
+        <v>16.5</v>
+      </c>
+      <c r="G3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <f>(1/6)*(POWER(B3,2)+POWER(C3,2)+POWER(D3,2)+POWER(E3,2)+POWER(F3,2)+POWER(G3,2))</f>
+        <v>252.44166666666666</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <f>16*POWER(B8,2)</f>
+        <v>726610.02666666661</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <f>(1/6)*(B2+C2+D2+E2+F2+G2)</f>
+        <v>138.26666666666665</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <f>SQRT((POWER(B2-B7,2)+POWER(C2-B7,2)+POWER(D2-B7,2)+POWER(E2-B7,2)+POWER(F2-B7,2)+POWER(G2-B7,2))/(5))</f>
+        <v>213.10355854998448</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B6/B5</f>
+        <v>2878.3284323110947</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>90</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f>_xlfn.F.INV.RT(0.05,B10,B11)</f>
+        <v>2.3156892378361018</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <f>SUMPRODUCT(B4:E4-1, POWER(B13:E13,2))</f>
+        <v>3394</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUMPRODUCT(B4:E4,POWER(B2:E2,2))-(POWER(SUMPRODUCT(B4:E4,B2:E2),2))/(SUM(B4:E4))</f>
+        <v>1055.4216867469877</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <f>0.25*(B2+C2+D2+E2)</f>
+        <v>11.5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f>(B6/B15)/(B5/B14)</f>
+        <v>8.1887952517199007</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>B3*SQRT(B4)</f>
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">C3*SQRT(C4)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.4721359549995796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B4:E4)-4</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7">
+        <f>SUM(B4:E4)</f>
+        <v>83</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>257</v>
+      </c>
+      <c r="C2">
+        <v>196</v>
+      </c>
+      <c r="D2">
+        <v>221</v>
+      </c>
+      <c r="E2">
+        <v>280</v>
+      </c>
+      <c r="F2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <f>SUMPRODUCT(B4:F4-1, POWER(B13:F13,2))</f>
+        <v>9372903</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUMPRODUCT(B4:F4,POWER(B2:F2,2))-(POWER(SUMPRODUCT(B4:F4,B2:F2),2))/(SUM(B4:F4))</f>
+        <v>151764</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <f>0.25*(B2+C2+D2+E2+F2)</f>
+        <v>316</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f>(B6/B15)/(B5/B14)</f>
+        <v>0.40884248988813815</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>159</v>
+      </c>
+      <c r="C13">
+        <v>359</v>
+      </c>
+      <c r="D13">
+        <v>340</v>
+      </c>
+      <c r="E13">
+        <v>263</v>
+      </c>
+      <c r="F13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7">
+        <f>SUM(B4:F4)</f>
+        <v>106</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>